--- a/Projektdokumentationen/Scoring Hilfe Informationen.xlsx
+++ b/Projektdokumentationen/Scoring Hilfe Informationen.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="1" r:id="rId1"/>
+    <sheet name="Scoring Aktionen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Link</t>
   </si>
@@ -53,13 +54,232 @@
   </si>
   <si>
     <t>4.</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Aktion</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Scoring Marker</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Triple</t>
+  </si>
+  <si>
+    <t>Homerun</t>
+  </si>
+  <si>
+    <t>Ein Schlag des Schlagmanns, welcher ihn sicher ans erste Base gebracht hat</t>
+  </si>
+  <si>
+    <t>Ein Schlag des Schlagmanns, welcher ihn sicher ans zweite Base gebracht hat</t>
+  </si>
+  <si>
+    <t>Ein Schlag des Schlagmanns, welcher ihn sicher ans dritte Base gebracht hat</t>
+  </si>
+  <si>
+    <t>Ein Schlag des Schlagmanns, welcher außerhalb des Spielfelds gelandet ist</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Base on Balls</t>
+  </si>
+  <si>
+    <t>Der Pitcher hat 4 Pitches außerhalb der Strikezone geworfen, sodass der Schlagmann automatisch aufs erste Base kommt</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Strike out</t>
+  </si>
+  <si>
+    <t>: Es gibt noch mehrere ausnahmen dabei</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Umgedrehtes K</t>
+  </si>
+  <si>
+    <t>Looking Strike out</t>
+  </si>
+  <si>
+    <t>Der Schlagmann hat den dritten Strike nur angeschaut und ist somit out</t>
+  </si>
+  <si>
+    <t>Der Schlagmann hat den dritten Strike geschwungen und ist somit out</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>https://www.artofmanliness.com/articles/how-to-score-a-baseball-game-with-pencil-and-paper/</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>Flyout durch Position #</t>
+  </si>
+  <si>
+    <t>Der Ball wurde von dem Feldspieler # direkt aus der Luft gefangen</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Position Pitcher</t>
+  </si>
+  <si>
+    <t>Position des Pitchers</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Position Catcher</t>
+  </si>
+  <si>
+    <t>Position des Catchers</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>First Base</t>
+  </si>
+  <si>
+    <t>Position des First Basemans</t>
+  </si>
+  <si>
+    <t>Second Base</t>
+  </si>
+  <si>
+    <t>Position des Second Basemans</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>3rd Base</t>
+  </si>
+  <si>
+    <t>Shortstop</t>
+  </si>
+  <si>
+    <t>Leftfield</t>
+  </si>
+  <si>
+    <t>Centerfield</t>
+  </si>
+  <si>
+    <t>Rightfield</t>
+  </si>
+  <si>
+    <t>Position des Third Basemans</t>
+  </si>
+  <si>
+    <t>Position des Shortstops</t>
+  </si>
+  <si>
+    <t>Position des Centerfielders</t>
+  </si>
+  <si>
+    <t>Position des leftfielders</t>
+  </si>
+  <si>
+    <t>Position des Rightfielders</t>
+  </si>
+  <si>
+    <t>Designated Hitter</t>
+  </si>
+  <si>
+    <t>Position des Designates Hitters</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Double Play</t>
+  </si>
+  <si>
+    <t>Nur möglich wenn weniger als 2 outs sind. Es wurden in einem Spielzug 2 outs produziert</t>
+  </si>
+  <si>
+    <t>1/2/3 eingekreist</t>
+  </si>
+  <si>
+    <t>Markierung des outs</t>
+  </si>
+  <si>
+    <t>Dadurch wird das jeweilige out markiert.</t>
+  </si>
+  <si>
+    <t>20.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +296,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,17 +331,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -125,9 +381,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -142,12 +395,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Kurze Beschreibung" dataDxfId="1"/>
     <tableColumn id="3" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="Scoring Marker"/>
+    <tableColumn id="3" name="Aktion"/>
+    <tableColumn id="4" name="Beschreibung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,15 +708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -502,6 +768,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,4 +779,327 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="C24:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Projektdokumentationen/Scoring Hilfe Informationen.xlsx
+++ b/Projektdokumentationen/Scoring Hilfe Informationen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Link</t>
   </si>
@@ -273,13 +273,19 @@
   </si>
   <si>
     <t>20.</t>
+  </si>
+  <si>
+    <t>Kleines Tutorial</t>
+  </si>
+  <si>
+    <t>Sehr gutes Beispiel!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +310,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,10 +348,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,8 +360,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -706,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +746,7 @@
     <col min="3" max="3" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -741,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -752,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -763,20 +790,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -785,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="C24:D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
